--- a/dev/sitemap.xlsx
+++ b/dev/sitemap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\_dev_tools\var\gulp_startkit\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2F410B-099D-4C33-9BEC-8A1EFF964553}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C6397C-FB5C-4803-81CA-5B91446313E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="2640" windowWidth="19200" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3255" yWindow="2625" windowWidth="24705" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>url</t>
     <phoneticPr fontId="1"/>
@@ -163,6 +163,10 @@
   </si>
   <si>
     <t>./src/_template.pug</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">キーワード </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -539,7 +543,7 @@
   <dimension ref="B1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -549,6 +553,7 @@
     <col min="4" max="4" width="31.5703125" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="83.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.35">
@@ -585,7 +590,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
         <v>34</v>

--- a/dev/sitemap.xlsx
+++ b/dev/sitemap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\_dev_tools\var\gulp_startkit\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C6397C-FB5C-4803-81CA-5B91446313E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1FC7B7-D7CF-4201-8D9B-12F0F79C4A1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="2625" windowWidth="24705" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2430" yWindow="795" windowWidth="24705" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>url</t>
     <phoneticPr fontId="1"/>
@@ -47,102 +47,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイトル foo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイトル qux</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>title bar</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>title quux</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>title baz</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイトル corge</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/test/foo/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/test/foo/qux/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/test/bar/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/test/bar/quux/grault.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/test/baz/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/test/baz/corge/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ディスクリプション foo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>でぃすくりぷしょん qux</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>でぃすくりぷしょん bar</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ディスクリプション quux</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>description  baz</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>desc  corge</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キーワード foo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>きーわーど qux</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>きー bar</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キー quux</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>keywords baz</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>keyword corge</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -166,7 +70,71 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">キーワード </t>
+    <t>/examples/accordion.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/examples/hover.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/examples/inview.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/examples/locate.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/examples/rescroll.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/examples/resize.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/examples/sticky.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/examples/tab.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>starter kit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>starter kit | accordion</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>starter kit | hover</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>starter kit | inview</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>starter kit | locate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>starter kit | rescroll</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>starter kit | resize</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>starter kit | sticky</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>starter kit | tab</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -540,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H8"/>
+  <dimension ref="B1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -573,33 +541,27 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
@@ -607,16 +569,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
@@ -624,16 +580,10 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
@@ -641,16 +591,10 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
@@ -658,16 +602,10 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
@@ -675,16 +613,10 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
@@ -692,16 +624,32 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/dev/sitemap.xlsx
+++ b/dev/sitemap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\_dev_tools\var\gulp_startkit\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1FC7B7-D7CF-4201-8D9B-12F0F79C4A1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB70E027-7B3C-4CDD-B083-A6650384E17F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="795" windowWidth="24705" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2940" windowWidth="28830" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,10 +106,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>starter kit | accordion</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>starter kit | hover</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -135,6 +131,10 @@
   </si>
   <si>
     <t>starter kit | tab</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">starter kit | accordion </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -511,7 +511,7 @@
   <dimension ref="B1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -569,7 +569,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -580,7 +580,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -591,7 +591,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -602,7 +602,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>10</v>
@@ -613,7 +613,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -624,7 +624,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -646,7 +646,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>

--- a/dev/sitemap.xlsx
+++ b/dev/sitemap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\_dev_tools\var\gulp_startkit\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB70E027-7B3C-4CDD-B083-A6650384E17F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF06D58-D46C-4B34-B014-044D4C5831E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2940" windowWidth="28830" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="1335" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>url</t>
     <phoneticPr fontId="1"/>
@@ -135,6 +135,14 @@
   </si>
   <si>
     <t xml:space="preserve">starter kit | accordion </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/examples/simplevideoplay.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>starter kit | simplevideoplay</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -508,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H10"/>
+  <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -652,6 +660,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
